--- a/revref_coursecreate.xlsx
+++ b/revref_coursecreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39983A4D-6AA7-4DBB-B907-B0739C613ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A65AB41-2C1D-4B85-827A-D78D93BCF24C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>header1</t>
   </si>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コース作成や削除など</t>
@@ -73,17 +69,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>&lt;h3&gt;コース作成や削除など&lt;/h3&gt;&lt;br&gt;
-【準備中】&lt;br &gt;</t>
-    <rPh sb="25" eb="27">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>準備中です。更新をお待ちください。</t>
     <rPh sb="0" eb="2">
       <t>ジュンビ</t>
@@ -128,35 +113,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[コースの管理]画面で削除したいコースを探し、[削除]をクリックします</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[このコースを削除しますか？]と聞かれたら、[OK]をクリックします</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>coursedelete2.png</t>
   </si>
   <si>
@@ -212,10 +168,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>授業に利用するコースを探し、 一番右の列にある[ もみじリンク ] をクリックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>複数の授業科目の履修生を一つのコースに登録したい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -253,10 +205,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>授業に利用しないコースを探し、 [可視性] の目のマークをクリックし、非表示にします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>今年度担当している講義の一覧が表示されます。関連付けたい講義全てにチェックを入れ、「更新する」をクリックします。</t>
     <rPh sb="30" eb="31">
       <t>スベ</t>
@@ -264,14 +212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、[ プリファレンス - 【その他】コースの管理 ]と進みます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「作成したか登録されているコースの一覧」から、授業に利用するコースを選び、一番右の列にある[ 編集 ] をクリックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;授業に利用するコースの名称を変更する&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -307,6 +247,55 @@
   </si>
   <si>
     <t>【準備中】作成したコースを一覧で確認したい(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、「プリファレンス - 【その他】コースの管理 」と進みます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コースの管理」画面で削除したいコースを探し、「削除」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「このコースを削除しますか？」と聞かれたら、「OK」をクリックします</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、「 プリファレンス - 【その他】コースの管理 」と進みます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「作成したか登録されているコースの一覧」から、授業に利用するコースを選び、一番右の列にある「編集」 をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業に利用しないコースを探し、 「可視性」 の目のマークをクリックし、非表示にします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業に利用するコースを探し、 一番右の列にある「もみじリンク」 をクリックします。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -759,7 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -772,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -788,23 +779,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2">
       <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27">
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="11"/>
@@ -836,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -852,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -866,7 +853,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -892,9 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -908,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -924,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -933,7 +918,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -979,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -993,7 +978,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1016,7 +1001,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1031,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1047,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1057,56 +1042,56 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -1137,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1153,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1162,7 +1147,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1206,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1219,7 +1204,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1248,11 +1233,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1266,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1282,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1292,97 +1275,97 @@
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27">
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27">
-      <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="27">
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="8" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1411,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1427,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1440,7 +1423,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1518,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1534,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1547,7 +1530,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>

--- a/revref_coursecreate.xlsx
+++ b/revref_coursecreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A65AB41-2C1D-4B85-827A-D78D93BCF24C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD80D0-1BAB-4E5C-A025-EF6234B07FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7575" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>header1</t>
   </si>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【準備中】授業にリンクしないコースを作りたい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【準備中】コース自動作成の時期よりも前に次年度の授業のコースの準備をしたい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【準備中】複数のコースを一括で作成したい、削除したい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -296,6 +288,503 @@
   </si>
   <si>
     <t>授業に利用するコースを探し、 一番右の列にある「もみじリンク」 をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コース自動作成の時期よりも前に次年度の授業のコースの準備する方法&lt;/h3&gt;</t>
+    <rPh sb="34" eb="36">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのあと3月以降に自動作成されたコースに、Aの内容をインポートします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「その他」の中にある「コースの管理」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コピー元のコース名の右横に表示されている「コピー」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「長いコース名」、「コース省略名」を入力してください
+コースカテゴリは旧コースと同じカテゴリ以外を選択できないため、コピー後に変更します</t>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウリャクメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コースをコピーする」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスがチェックマークになればコピー完了です</t>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースにおいて、項目の「利用制限」の日付設定や、「課題」の締切日時など、日時を設定している場合は注意が必要です。 新コースにおいては、旧コースで設定された日付がそのまま引き継がれるわけではありません。 新コースの該当箇所に設定されるのは、次のような日時です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに設定される日時 ＝ 「新コースの開設日時」　＋　（「旧コースの該当項目の設定日時」 ー　「旧コースの開設日時」)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
+ &lt;table border="1"&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;コース&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;旧コース&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;新コースA&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;新コースB&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;開設日時&lt;/th&gt;
+      &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;課題終了日時&lt;/th&gt;
+      &lt;td&gt;2022年4月19日0:00	&lt;/td&gt;
+      &lt;td&gt;2023年4月19日0:00&lt;/td&gt;
+      &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="date"&gt;&lt;/a&gt;日付の設定&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて、来年度用に編集をしてください
+コースコピーの際に編集すべき以下の2点もご確認ください</t>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宛先に表示されている新コース名をクリックします
+※画面を移動してしまった場合は、新コースに入ってください</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「設定」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースカテゴリを変更し、「保存して表示する」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用条件や、締め切りなど、日付を設定している項目がある場合は、設定を変更します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューが「インポート」となっているのを確認します</t>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+  </si>
+  <si>
+    <t>「次へ」をクリックします</t>
+  </si>
+  <si>
+    <t>「インポートを実行する」をクリックします</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自動作成されたコースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
+    <rPh sb="1" eb="3">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;1.今年度コースのコピー&lt;/h3&gt;</t>
+    <rPh sb="6" eb="9">
+      <t>コンネンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;2.コースカテゴリの修正&lt;/h4&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;3.コピーしたコースを自動作成されたコースにインポート【3月以降に実施】&lt;/h3&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1で作成したコースを選択します</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動作成されたコースにコピーするセクションや項目を選択します
+デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます
+&lt;u&gt;&lt;b&gt;「連絡事項」「コメントシート」は重複しますので、選択しないようにするか、コピー後に重複分を削除してください&lt;/b&gt;&lt;/u&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース自動作成の時期よりも前に次年度の授業のコースの準備をしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業にリンクしないコースを作りたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;授業にリンクしないコースの作成について&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次年度用のコースは、3月1日より順次作成されて行きます。それ以前に準備したい場合は、まず今年度のコースをコピーして、次年度用に編集します。このコースをAとします。</t>
+    <rPh sb="0" eb="3">
+      <t>ジネンド</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ジネンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;次年度用に編集&lt;/h3&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>ジネンド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業用のコースは、3月1日より順次自動に作成されて行きます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業外のコースを作成したい場合は、手動でコースを作成する必要があります。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースの手動作成&lt;/h3&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コースを作成する」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「長いコース名」、「コース省略名」、「コースカテゴリ」を設定します。</t>
+    <rPh sb="13" eb="16">
+      <t>ショウリャクメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの一覧から作成したコース名をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて、その他の項目を設定してください</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを参加者に指定日まで表示させたくない場合は、「コース可視性」を「非表示」に変更し、指定日になったら「表示」へ変更してください
+表示になるまで参加者にはコースが表示されません</t>
+    <rPh sb="4" eb="7">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シテイビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カシセイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>シテイビ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 好みのコーステンプレートの「このテンプレートを使用する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認画面が表示されるので「インポート」をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -390,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +920,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,9 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -823,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -839,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -877,9 +1370,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -893,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -909,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -918,7 +1413,72 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40.5">
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -948,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -964,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -978,21 +1538,182 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="27">
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="27">
+      <c r="B22" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="40.5">
+      <c r="B28" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="297">
+      <c r="B30" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="75">
+      <c r="B39" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1016,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1032,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1042,56 +1763,56 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -1122,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1138,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1175,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1191,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1249,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1265,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1275,45 +1996,45 @@
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27">
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1321,25 +2042,25 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="27">
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -1351,20 +2072,20 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1410,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1501,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1517,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/revref_coursecreate.xlsx
+++ b/revref_coursecreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD80D0-1BAB-4E5C-A025-EF6234B07FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA84BD3-0A75-41E7-AAF9-9C503E151A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7575" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7575" activeTab="2" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -537,13 +537,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;2.コースカテゴリの修正&lt;/h4&gt;</t>
-    <rPh sb="14" eb="16">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;3.コピーしたコースを自動作成されたコースにインポート【3月以降に実施】&lt;/h3&gt;</t>
     <rPh sb="15" eb="17">
       <t>ジドウ</t>
@@ -632,19 +625,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;次年度用に編集&lt;/h3&gt;</t>
-    <rPh sb="4" eb="7">
-      <t>ジネンド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>授業用のコースは、3月1日より順次自動に作成されて行きます。</t>
     <rPh sb="0" eb="2">
       <t>ジュギョウ</t>
@@ -785,6 +765,26 @@
   </si>
   <si>
     <t>確認画面が表示されるので「インポート」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースカテゴリの修正&lt;/h4&gt;</t>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;2.次年度用に編集&lt;/h3&gt;</t>
+    <rPh sb="6" eb="9">
+      <t>ジネンド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1243,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1413,22 +1413,22 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1443,42 +1443,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40.5">
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1546,7 +1546,7 @@
     <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="27">
@@ -1609,7 +1609,7 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27">
@@ -1657,7 +1657,7 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -1692,7 +1692,7 @@
     </row>
     <row r="39" spans="2:2" ht="75">
       <c r="B39" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -1707,7 +1707,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
